--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1372.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1372.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.229113346666782</v>
+        <v>1.248195171356201</v>
       </c>
       <c r="B1">
-        <v>2.551330004170242</v>
+        <v>2.645231246948242</v>
       </c>
       <c r="C1">
-        <v>3.553676351644774</v>
+        <v>8.423727989196777</v>
       </c>
       <c r="D1">
-        <v>3.00479922488639</v>
+        <v>2.110546827316284</v>
       </c>
       <c r="E1">
-        <v>1.119237788316448</v>
+        <v>1.138992428779602</v>
       </c>
     </row>
   </sheetData>
